--- a/Code/Results/Cases/Case_3_118/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_118/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.039970014304824</v>
+        <v>1.062571069414157</v>
       </c>
       <c r="D2">
-        <v>1.058098129707357</v>
+        <v>1.069625754126267</v>
       </c>
       <c r="E2">
-        <v>1.051654402539863</v>
+        <v>1.068763650697578</v>
       </c>
       <c r="F2">
-        <v>1.064625684878573</v>
+        <v>1.081091130014028</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.070038446924348</v>
+        <v>1.058401058227911</v>
       </c>
       <c r="J2">
-        <v>1.061017586721757</v>
+        <v>1.067540907811462</v>
       </c>
       <c r="K2">
-        <v>1.068803325164455</v>
+        <v>1.072327760100322</v>
       </c>
       <c r="L2">
-        <v>1.062438127294402</v>
+        <v>1.071467961670787</v>
       </c>
       <c r="M2">
-        <v>1.075252531250415</v>
+        <v>1.083762858671364</v>
       </c>
       <c r="N2">
-        <v>1.023341669311406</v>
+        <v>1.026145543898051</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.045003275091057</v>
+        <v>1.063620928593148</v>
       </c>
       <c r="D3">
-        <v>1.062137030567066</v>
+        <v>1.070485136890427</v>
       </c>
       <c r="E3">
-        <v>1.055881769570615</v>
+        <v>1.069687880329725</v>
       </c>
       <c r="F3">
-        <v>1.069094323048824</v>
+        <v>1.082068877904606</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.072093674488234</v>
+        <v>1.058760953174754</v>
       </c>
       <c r="J3">
-        <v>1.064338005600859</v>
+        <v>1.068244775014887</v>
       </c>
       <c r="K3">
-        <v>1.072032108314884</v>
+        <v>1.073003241950057</v>
       </c>
       <c r="L3">
-        <v>1.065846279348333</v>
+        <v>1.072207963191973</v>
       </c>
       <c r="M3">
-        <v>1.078913347432783</v>
+        <v>1.084558600011464</v>
       </c>
       <c r="N3">
-        <v>1.024507794179008</v>
+        <v>1.026388024984642</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.048191003283726</v>
+        <v>1.064300554447887</v>
       </c>
       <c r="D4">
-        <v>1.064697493782588</v>
+        <v>1.071041460504575</v>
       </c>
       <c r="E4">
-        <v>1.058564129893231</v>
+        <v>1.070286469181662</v>
       </c>
       <c r="F4">
-        <v>1.071929703446952</v>
+        <v>1.082702151886377</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.073385623788758</v>
+        <v>1.058992732393206</v>
       </c>
       <c r="J4">
-        <v>1.066437450053398</v>
+        <v>1.068699899316143</v>
       </c>
       <c r="K4">
-        <v>1.07407308571596</v>
+        <v>1.073439923495347</v>
       </c>
       <c r="L4">
-        <v>1.068003609864373</v>
+        <v>1.072686710999251</v>
       </c>
       <c r="M4">
-        <v>1.081231105721977</v>
+        <v>1.085073478974447</v>
       </c>
       <c r="N4">
-        <v>1.025244419824866</v>
+        <v>1.026544645915975</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.049515202847472</v>
+        <v>1.064586339947694</v>
       </c>
       <c r="D5">
-        <v>1.065761675085572</v>
+        <v>1.071275396956098</v>
       </c>
       <c r="E5">
-        <v>1.059679559434804</v>
+        <v>1.07053824695612</v>
       </c>
       <c r="F5">
-        <v>1.073108749302557</v>
+        <v>1.082968524490581</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.073919944358661</v>
+        <v>1.059089909480426</v>
       </c>
       <c r="J5">
-        <v>1.067308699763804</v>
+        <v>1.068891155324181</v>
       </c>
       <c r="K5">
-        <v>1.074919939088888</v>
+        <v>1.07362340802805</v>
       </c>
       <c r="L5">
-        <v>1.068899458537281</v>
+        <v>1.072887956212758</v>
       </c>
       <c r="M5">
-        <v>1.082193691150855</v>
+        <v>1.085289928929035</v>
       </c>
       <c r="N5">
-        <v>1.025549936235752</v>
+        <v>1.02661042191375</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.049736625784288</v>
+        <v>1.064634328734528</v>
       </c>
       <c r="D6">
-        <v>1.06593965071456</v>
+        <v>1.071314679294756</v>
       </c>
       <c r="E6">
-        <v>1.059866140461615</v>
+        <v>1.0705805292133</v>
       </c>
       <c r="F6">
-        <v>1.07330597075916</v>
+        <v>1.083013258057358</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.074009149618741</v>
+        <v>1.059106210515909</v>
       </c>
       <c r="J6">
-        <v>1.067454331563838</v>
+        <v>1.068923263447117</v>
       </c>
       <c r="K6">
-        <v>1.075061484963542</v>
+        <v>1.073654210220612</v>
       </c>
       <c r="L6">
-        <v>1.069049235971676</v>
+        <v>1.072921744958757</v>
       </c>
       <c r="M6">
-        <v>1.082354633253359</v>
+        <v>1.085326271507675</v>
       </c>
       <c r="N6">
-        <v>1.025600993510031</v>
+        <v>1.026621462030313</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.04820875905596</v>
+        <v>1.064304372849868</v>
       </c>
       <c r="D7">
-        <v>1.064711760937016</v>
+        <v>1.071044586147932</v>
       </c>
       <c r="E7">
-        <v>1.058579081798703</v>
+        <v>1.070289832934735</v>
       </c>
       <c r="F7">
-        <v>1.07194550816298</v>
+        <v>1.082705710604436</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.073392797704096</v>
+        <v>1.058994031911574</v>
       </c>
       <c r="J7">
-        <v>1.066449135850428</v>
+        <v>1.068702455196338</v>
       </c>
       <c r="K7">
-        <v>1.07408444482706</v>
+        <v>1.073442375604062</v>
       </c>
       <c r="L7">
-        <v>1.068015623322562</v>
+        <v>1.072689400128377</v>
       </c>
       <c r="M7">
-        <v>1.081244013664583</v>
+        <v>1.085076371210407</v>
       </c>
       <c r="N7">
-        <v>1.025248518329225</v>
+        <v>1.026545525083422</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.041685730754273</v>
+        <v>1.062925812637287</v>
       </c>
       <c r="D8">
-        <v>1.05947433953634</v>
+        <v>1.069916135259781</v>
       </c>
       <c r="E8">
-        <v>1.053094325895688</v>
+        <v>1.069075883988635</v>
       </c>
       <c r="F8">
-        <v>1.066147806111635</v>
+        <v>1.081421438599886</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.070741035414712</v>
+        <v>1.058522913344017</v>
       </c>
       <c r="J8">
-        <v>1.062150146599307</v>
+        <v>1.067778850000826</v>
       </c>
       <c r="K8">
-        <v>1.06990473577378</v>
+        <v>1.072556124931747</v>
       </c>
       <c r="L8">
-        <v>1.063600103406603</v>
+        <v>1.071718065417935</v>
       </c>
       <c r="M8">
-        <v>1.076500546737161</v>
+        <v>1.084031786710697</v>
       </c>
       <c r="N8">
-        <v>1.023739562416567</v>
+        <v>1.02622754943782</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.029631854213609</v>
+        <v>1.060498897320513</v>
       </c>
       <c r="D9">
-        <v>1.049818371099172</v>
+        <v>1.067929574642367</v>
       </c>
       <c r="E9">
-        <v>1.043001385784577</v>
+        <v>1.066941000449582</v>
       </c>
       <c r="F9">
-        <v>1.055478327627218</v>
+        <v>1.079163060905539</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.065765283316363</v>
+        <v>1.057684354704822</v>
       </c>
       <c r="J9">
-        <v>1.054179942954612</v>
+        <v>1.066148872731752</v>
       </c>
       <c r="K9">
-        <v>1.062151770641113</v>
+        <v>1.070991395156736</v>
       </c>
       <c r="L9">
-        <v>1.055433299580438</v>
+        <v>1.07000584176509</v>
       </c>
       <c r="M9">
-        <v>1.067731155883377</v>
+        <v>1.082190978681453</v>
       </c>
       <c r="N9">
-        <v>1.020936887930933</v>
+        <v>1.025665099330722</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.021174794073133</v>
+        <v>1.058882501762848</v>
       </c>
       <c r="D10">
-        <v>1.04306226883923</v>
+        <v>1.066606531735687</v>
       </c>
       <c r="E10">
-        <v>1.035952121256409</v>
+        <v>1.065520645612974</v>
       </c>
       <c r="F10">
-        <v>1.048025811705229</v>
+        <v>1.077660662990181</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.062225553856338</v>
+        <v>1.057119693142114</v>
       </c>
       <c r="J10">
-        <v>1.048572767673665</v>
+        <v>1.065060589364209</v>
       </c>
       <c r="K10">
-        <v>1.056695240080479</v>
+        <v>1.069946226418845</v>
       </c>
       <c r="L10">
-        <v>1.049701234418048</v>
+        <v>1.068863983263727</v>
       </c>
       <c r="M10">
-        <v>1.06157890274237</v>
+        <v>1.080963731073379</v>
       </c>
       <c r="N10">
-        <v>1.018962333773205</v>
+        <v>1.025288712229924</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.017401904199426</v>
+        <v>1.058182953598301</v>
       </c>
       <c r="D11">
-        <v>1.040053461497005</v>
+        <v>1.06603396395583</v>
       </c>
       <c r="E11">
-        <v>1.032815670933551</v>
+        <v>1.064906313006288</v>
       </c>
       <c r="F11">
-        <v>1.044709775255679</v>
+        <v>1.077010872973282</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.060635425537611</v>
+        <v>1.056873858073693</v>
       </c>
       <c r="J11">
-        <v>1.046068244346159</v>
+        <v>1.064588968711997</v>
       </c>
       <c r="K11">
-        <v>1.054257593934549</v>
+        <v>1.069493184645488</v>
       </c>
       <c r="L11">
-        <v>1.04714417624022</v>
+        <v>1.068369463098695</v>
       </c>
       <c r="M11">
-        <v>1.058835069314451</v>
+        <v>1.080432316394583</v>
       </c>
       <c r="N11">
-        <v>1.01807984782689</v>
+        <v>1.025125398782169</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.015982798249094</v>
+        <v>1.057923164657557</v>
       </c>
       <c r="D12">
-        <v>1.038922615889374</v>
+        <v>1.065821335285421</v>
       </c>
       <c r="E12">
-        <v>1.031637283454422</v>
+        <v>1.064678226885702</v>
       </c>
       <c r="F12">
-        <v>1.043463888407512</v>
+        <v>1.076769626590218</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.060035730893996</v>
+        <v>1.056782343932127</v>
       </c>
       <c r="J12">
-        <v>1.045125809054443</v>
+        <v>1.064413730035523</v>
       </c>
       <c r="K12">
-        <v>1.053340272159842</v>
+        <v>1.069324833530205</v>
       </c>
       <c r="L12">
-        <v>1.046182466751713</v>
+        <v>1.068185763533146</v>
       </c>
       <c r="M12">
-        <v>1.057803215867622</v>
+        <v>1.080234924569682</v>
       </c>
       <c r="N12">
-        <v>1.017747708423979</v>
+        <v>1.02506468674803</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.016288018922572</v>
+        <v>1.057978887805006</v>
       </c>
       <c r="D13">
-        <v>1.039165797349098</v>
+        <v>1.065866942652127</v>
       </c>
       <c r="E13">
-        <v>1.031890669078329</v>
+        <v>1.064727147399957</v>
       </c>
       <c r="F13">
-        <v>1.04373178953281</v>
+        <v>1.076821369563712</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.060164784169845</v>
+        <v>1.056801983075652</v>
       </c>
       <c r="J13">
-        <v>1.045328524946218</v>
+        <v>1.06445132193508</v>
       </c>
       <c r="K13">
-        <v>1.053537588368986</v>
+        <v>1.069360948632619</v>
       </c>
       <c r="L13">
-        <v>1.046389306048237</v>
+        <v>1.068225168283635</v>
       </c>
       <c r="M13">
-        <v>1.058025136703255</v>
+        <v>1.080277265812081</v>
       </c>
       <c r="N13">
-        <v>1.017819153691835</v>
+        <v>1.025077711950982</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.017284967447665</v>
+        <v>1.058161478253513</v>
       </c>
       <c r="D14">
-        <v>1.039960259875427</v>
+        <v>1.066016387010574</v>
       </c>
       <c r="E14">
-        <v>1.032718542275487</v>
+        <v>1.064887457203753</v>
       </c>
       <c r="F14">
-        <v>1.044607083532838</v>
+        <v>1.076990929131216</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.060586041791134</v>
+        <v>1.056866297566022</v>
       </c>
       <c r="J14">
-        <v>1.045990593945929</v>
+        <v>1.064574484604787</v>
       </c>
       <c r="K14">
-        <v>1.054182013717929</v>
+        <v>1.069479270140469</v>
       </c>
       <c r="L14">
-        <v>1.047064927693441</v>
+        <v>1.068354278692954</v>
       </c>
       <c r="M14">
-        <v>1.058750038549735</v>
+        <v>1.080415999937169</v>
       </c>
       <c r="N14">
-        <v>1.01805248301222</v>
+        <v>1.025120381328136</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.017896844796298</v>
+        <v>1.058273985464301</v>
       </c>
       <c r="D15">
-        <v>1.040447977655059</v>
+        <v>1.066108471057581</v>
       </c>
       <c r="E15">
-        <v>1.033226827548421</v>
+        <v>1.064986243212908</v>
       </c>
       <c r="F15">
-        <v>1.045144479816097</v>
+        <v>1.077095415576901</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.060844379983803</v>
+        <v>1.056905897343474</v>
       </c>
       <c r="J15">
-        <v>1.046396887411517</v>
+        <v>1.064650361545997</v>
       </c>
       <c r="K15">
-        <v>1.05457747321863</v>
+        <v>1.069552162500245</v>
       </c>
       <c r="L15">
-        <v>1.047479603385334</v>
+        <v>1.068433826200245</v>
       </c>
       <c r="M15">
-        <v>1.059194974431639</v>
+        <v>1.080501478525951</v>
       </c>
       <c r="N15">
-        <v>1.018195662480107</v>
+        <v>1.025146664701581</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.021422765868062</v>
+        <v>1.058928936096316</v>
       </c>
       <c r="D16">
-        <v>1.043260137117846</v>
+        <v>1.066644537939271</v>
       </c>
       <c r="E16">
-        <v>1.036158443972001</v>
+        <v>1.065561431445247</v>
       </c>
       <c r="F16">
-        <v>1.048243944317802</v>
+        <v>1.077703803443372</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.062329840390056</v>
+        <v>1.057135980340565</v>
       </c>
       <c r="J16">
-        <v>1.048737317779179</v>
+        <v>1.065091881153822</v>
       </c>
       <c r="K16">
-        <v>1.056855388546755</v>
+        <v>1.069976283298046</v>
       </c>
       <c r="L16">
-        <v>1.049869304242493</v>
+        <v>1.068896801124674</v>
       </c>
       <c r="M16">
-        <v>1.061759262964816</v>
+        <v>1.080998999182218</v>
       </c>
       <c r="N16">
-        <v>1.019020304302919</v>
+        <v>1.025299543760149</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.023604088187269</v>
+        <v>1.059339866210469</v>
       </c>
       <c r="D17">
-        <v>1.045001321424009</v>
+        <v>1.066980884263069</v>
       </c>
       <c r="E17">
-        <v>1.037974356081556</v>
+        <v>1.06592241711828</v>
       </c>
       <c r="F17">
-        <v>1.050163779859214</v>
+        <v>1.078085632527797</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.063245971356471</v>
+        <v>1.057279948614594</v>
       </c>
       <c r="J17">
-        <v>1.050184469500971</v>
+        <v>1.065368731428804</v>
       </c>
       <c r="K17">
-        <v>1.058263784121562</v>
+        <v>1.070242195699479</v>
       </c>
       <c r="L17">
-        <v>1.051347780393883</v>
+        <v>1.069187189845699</v>
       </c>
       <c r="M17">
-        <v>1.063345931558519</v>
+        <v>1.081311078861535</v>
       </c>
       <c r="N17">
-        <v>1.019530073709585</v>
+        <v>1.025395351137229</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.024865786762805</v>
+        <v>1.059579589696949</v>
       </c>
       <c r="D18">
-        <v>1.046008931765948</v>
+        <v>1.06717710007362</v>
       </c>
       <c r="E18">
-        <v>1.039025487895742</v>
+        <v>1.066133040525794</v>
       </c>
       <c r="F18">
-        <v>1.051275051628294</v>
+        <v>1.078308420083748</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.063774827016219</v>
+        <v>1.057363794255389</v>
       </c>
       <c r="J18">
-        <v>1.051021225425853</v>
+        <v>1.06553017616931</v>
       </c>
       <c r="K18">
-        <v>1.059078091364813</v>
+        <v>1.070397251871418</v>
       </c>
       <c r="L18">
-        <v>1.052202955664716</v>
+        <v>1.069356560162538</v>
       </c>
       <c r="M18">
-        <v>1.064263750476794</v>
+        <v>1.081493108817331</v>
       </c>
       <c r="N18">
-        <v>1.019824776429329</v>
+        <v>1.025451201587243</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.025294220101166</v>
+        <v>1.059661335129837</v>
       </c>
       <c r="D19">
-        <v>1.046351165954905</v>
+        <v>1.067244009780486</v>
       </c>
       <c r="E19">
-        <v>1.039382551293682</v>
+        <v>1.066204868937164</v>
       </c>
       <c r="F19">
-        <v>1.051652541647888</v>
+        <v>1.078384397264107</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.063954231292585</v>
+        <v>1.057392361630316</v>
       </c>
       <c r="J19">
-        <v>1.051305310651908</v>
+        <v>1.065585218309715</v>
       </c>
       <c r="K19">
-        <v>1.059354548099134</v>
+        <v>1.070450114198716</v>
       </c>
       <c r="L19">
-        <v>1.052493346352315</v>
+        <v>1.069414309606426</v>
       </c>
       <c r="M19">
-        <v>1.064575423679002</v>
+        <v>1.081555176170177</v>
       </c>
       <c r="N19">
-        <v>1.019924821389697</v>
+        <v>1.025470239649404</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.023371159567773</v>
+        <v>1.059295773687616</v>
       </c>
       <c r="D20">
-        <v>1.044815340579213</v>
+        <v>1.066944794306531</v>
       </c>
       <c r="E20">
-        <v>1.037780364645347</v>
+        <v>1.065883679881403</v>
       </c>
       <c r="F20">
-        <v>1.04995868806102</v>
+        <v>1.078044658313648</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.063148251873514</v>
+        <v>1.057264515483344</v>
       </c>
       <c r="J20">
-        <v>1.05002996781943</v>
+        <v>1.06533903187421</v>
       </c>
       <c r="K20">
-        <v>1.058113424182573</v>
+        <v>1.070213670573782</v>
       </c>
       <c r="L20">
-        <v>1.051189902501505</v>
+        <v>1.069156034761197</v>
       </c>
       <c r="M20">
-        <v>1.063176493839684</v>
+        <v>1.081277595748736</v>
       </c>
       <c r="N20">
-        <v>1.019475654549138</v>
+        <v>1.025385075259069</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.01699188779457</v>
+        <v>1.058107708415442</v>
       </c>
       <c r="D21">
-        <v>1.039726681981251</v>
+        <v>1.065972378027912</v>
       </c>
       <c r="E21">
-        <v>1.032475129551576</v>
+        <v>1.06484024707611</v>
       </c>
       <c r="F21">
-        <v>1.044349728840377</v>
+        <v>1.076940994897061</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.060462245336041</v>
+        <v>1.056847364072381</v>
       </c>
       <c r="J21">
-        <v>1.045795971729251</v>
+        <v>1.064538217860215</v>
       </c>
       <c r="K21">
-        <v>1.053992579387575</v>
+        <v>1.069444429368481</v>
       </c>
       <c r="L21">
-        <v>1.046866307880048</v>
+        <v>1.068316259243966</v>
       </c>
       <c r="M21">
-        <v>1.058536928475332</v>
+        <v>1.080375146211877</v>
       </c>
       <c r="N21">
-        <v>1.017983895087246</v>
+        <v>1.025107817642517</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.012878091624589</v>
+        <v>1.057361039362134</v>
       </c>
       <c r="D22">
-        <v>1.036450240085741</v>
+        <v>1.065361262223524</v>
       </c>
       <c r="E22">
-        <v>1.029061754383752</v>
+        <v>1.06418480358467</v>
       </c>
       <c r="F22">
-        <v>1.040740776615958</v>
+        <v>1.076247741042011</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.058720849592947</v>
+        <v>1.056583927089492</v>
       </c>
       <c r="J22">
-        <v>1.043063277348873</v>
+        <v>1.064034380252513</v>
       </c>
       <c r="K22">
-        <v>1.051332617413265</v>
+        <v>1.068960364986123</v>
       </c>
       <c r="L22">
-        <v>1.044078670038204</v>
+        <v>1.06778818545713</v>
       </c>
       <c r="M22">
-        <v>1.05554616505334</v>
+        <v>1.079807736271255</v>
       </c>
       <c r="N22">
-        <v>1.017020710373113</v>
+        <v>1.024933204749807</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.01506900826342</v>
+        <v>1.057756832905787</v>
       </c>
       <c r="D23">
-        <v>1.038194695773427</v>
+        <v>1.065685199433066</v>
       </c>
       <c r="E23">
-        <v>1.030878881856414</v>
+        <v>1.06453220910361</v>
       </c>
       <c r="F23">
-        <v>1.042662036623296</v>
+        <v>1.076615184951491</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.05964913293472</v>
+        <v>1.056723689652899</v>
       </c>
       <c r="J23">
-        <v>1.044518849862868</v>
+        <v>1.064301505651008</v>
       </c>
       <c r="K23">
-        <v>1.052749473529049</v>
+        <v>1.06921701558138</v>
       </c>
       <c r="L23">
-        <v>1.045563234471867</v>
+        <v>1.068068134188061</v>
       </c>
       <c r="M23">
-        <v>1.057138847824557</v>
+        <v>1.08010853123577</v>
       </c>
       <c r="N23">
-        <v>1.017533782842586</v>
+        <v>1.025025797760555</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.023476442759086</v>
+        <v>1.059315697092788</v>
       </c>
       <c r="D24">
-        <v>1.044899401966122</v>
+        <v>1.06696110170959</v>
       </c>
       <c r="E24">
-        <v>1.037868045875901</v>
+        <v>1.065901183365626</v>
       </c>
       <c r="F24">
-        <v>1.050051386537543</v>
+        <v>1.078063172571403</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.063192424091763</v>
+        <v>1.057271489448418</v>
       </c>
       <c r="J24">
-        <v>1.050099803124778</v>
+        <v>1.065352451939865</v>
       </c>
       <c r="K24">
-        <v>1.058181387529026</v>
+        <v>1.07022655999244</v>
       </c>
       <c r="L24">
-        <v>1.051261262913433</v>
+        <v>1.069170112429104</v>
       </c>
       <c r="M24">
-        <v>1.063253079067927</v>
+        <v>1.081292725328726</v>
       </c>
       <c r="N24">
-        <v>1.019500252359202</v>
+        <v>1.025389718586118</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.032818806743338</v>
+        <v>1.061126041186818</v>
       </c>
       <c r="D25">
-        <v>1.052368400990254</v>
+        <v>1.068442916832751</v>
       </c>
       <c r="E25">
-        <v>1.045664625342965</v>
+        <v>1.067492410924465</v>
       </c>
       <c r="F25">
-        <v>1.058293789248246</v>
+        <v>1.07974634719888</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.067089401336949</v>
+        <v>1.057902134454701</v>
       </c>
       <c r="J25">
-        <v>1.056290009021459</v>
+        <v>1.066570550520083</v>
       </c>
       <c r="K25">
-        <v>1.064204733797532</v>
+        <v>1.071396272790905</v>
       </c>
       <c r="L25">
-        <v>1.057593126926893</v>
+        <v>1.07044856129857</v>
       </c>
       <c r="M25">
-        <v>1.070049877266013</v>
+        <v>1.082666881786261</v>
       </c>
       <c r="N25">
-        <v>1.021679412196319</v>
+        <v>1.025810757690045</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_118/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_118/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.062571069414157</v>
+        <v>1.039970014304825</v>
       </c>
       <c r="D2">
-        <v>1.069625754126267</v>
+        <v>1.058098129707358</v>
       </c>
       <c r="E2">
-        <v>1.068763650697578</v>
+        <v>1.051654402539864</v>
       </c>
       <c r="F2">
-        <v>1.081091130014028</v>
+        <v>1.064625684878574</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.058401058227911</v>
+        <v>1.070038446924348</v>
       </c>
       <c r="J2">
-        <v>1.067540907811462</v>
+        <v>1.061017586721758</v>
       </c>
       <c r="K2">
-        <v>1.072327760100322</v>
+        <v>1.068803325164456</v>
       </c>
       <c r="L2">
-        <v>1.071467961670787</v>
+        <v>1.062438127294403</v>
       </c>
       <c r="M2">
-        <v>1.083762858671364</v>
+        <v>1.075252531250416</v>
       </c>
       <c r="N2">
-        <v>1.026145543898051</v>
+        <v>1.023341669311407</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.063620928593148</v>
+        <v>1.045003275091057</v>
       </c>
       <c r="D3">
-        <v>1.070485136890427</v>
+        <v>1.062137030567065</v>
       </c>
       <c r="E3">
-        <v>1.069687880329725</v>
+        <v>1.055881769570614</v>
       </c>
       <c r="F3">
-        <v>1.082068877904606</v>
+        <v>1.069094323048823</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.058760953174754</v>
+        <v>1.072093674488233</v>
       </c>
       <c r="J3">
-        <v>1.068244775014887</v>
+        <v>1.064338005600858</v>
       </c>
       <c r="K3">
-        <v>1.073003241950057</v>
+        <v>1.072032108314883</v>
       </c>
       <c r="L3">
-        <v>1.072207963191973</v>
+        <v>1.065846279348332</v>
       </c>
       <c r="M3">
-        <v>1.084558600011464</v>
+        <v>1.078913347432782</v>
       </c>
       <c r="N3">
-        <v>1.026388024984642</v>
+        <v>1.024507794179008</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.064300554447887</v>
+        <v>1.048191003283726</v>
       </c>
       <c r="D4">
-        <v>1.071041460504575</v>
+        <v>1.064697493782588</v>
       </c>
       <c r="E4">
-        <v>1.070286469181662</v>
+        <v>1.058564129893231</v>
       </c>
       <c r="F4">
-        <v>1.082702151886377</v>
+        <v>1.071929703446952</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.058992732393206</v>
+        <v>1.073385623788758</v>
       </c>
       <c r="J4">
-        <v>1.068699899316143</v>
+        <v>1.066437450053398</v>
       </c>
       <c r="K4">
-        <v>1.073439923495347</v>
+        <v>1.07407308571596</v>
       </c>
       <c r="L4">
-        <v>1.072686710999251</v>
+        <v>1.068003609864372</v>
       </c>
       <c r="M4">
-        <v>1.085073478974447</v>
+        <v>1.081231105721977</v>
       </c>
       <c r="N4">
-        <v>1.026544645915975</v>
+        <v>1.025244419824866</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.064586339947694</v>
+        <v>1.049515202847472</v>
       </c>
       <c r="D5">
-        <v>1.071275396956098</v>
+        <v>1.065761675085571</v>
       </c>
       <c r="E5">
-        <v>1.07053824695612</v>
+        <v>1.059679559434803</v>
       </c>
       <c r="F5">
-        <v>1.082968524490581</v>
+        <v>1.073108749302556</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.059089909480426</v>
+        <v>1.073919944358661</v>
       </c>
       <c r="J5">
-        <v>1.068891155324181</v>
+        <v>1.067308699763804</v>
       </c>
       <c r="K5">
-        <v>1.07362340802805</v>
+        <v>1.074919939088888</v>
       </c>
       <c r="L5">
-        <v>1.072887956212758</v>
+        <v>1.06889945853728</v>
       </c>
       <c r="M5">
-        <v>1.085289928929035</v>
+        <v>1.082193691150855</v>
       </c>
       <c r="N5">
-        <v>1.02661042191375</v>
+        <v>1.025549936235752</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.064634328734528</v>
+        <v>1.049736625784288</v>
       </c>
       <c r="D6">
-        <v>1.071314679294756</v>
+        <v>1.065939650714559</v>
       </c>
       <c r="E6">
-        <v>1.0705805292133</v>
+        <v>1.059866140461615</v>
       </c>
       <c r="F6">
-        <v>1.083013258057358</v>
+        <v>1.07330597075916</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.059106210515909</v>
+        <v>1.07400914961874</v>
       </c>
       <c r="J6">
-        <v>1.068923263447117</v>
+        <v>1.067454331563838</v>
       </c>
       <c r="K6">
-        <v>1.073654210220612</v>
+        <v>1.075061484963541</v>
       </c>
       <c r="L6">
-        <v>1.072921744958757</v>
+        <v>1.069049235971675</v>
       </c>
       <c r="M6">
-        <v>1.085326271507675</v>
+        <v>1.082354633253359</v>
       </c>
       <c r="N6">
-        <v>1.026621462030313</v>
+        <v>1.025600993510031</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.064304372849868</v>
+        <v>1.048208759055958</v>
       </c>
       <c r="D7">
-        <v>1.071044586147932</v>
+        <v>1.064711760937014</v>
       </c>
       <c r="E7">
-        <v>1.070289832934735</v>
+        <v>1.058579081798701</v>
       </c>
       <c r="F7">
-        <v>1.082705710604436</v>
+        <v>1.071945508162978</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.058994031911574</v>
+        <v>1.073392797704095</v>
       </c>
       <c r="J7">
-        <v>1.068702455196338</v>
+        <v>1.066449135850426</v>
       </c>
       <c r="K7">
-        <v>1.073442375604062</v>
+        <v>1.074084444827058</v>
       </c>
       <c r="L7">
-        <v>1.072689400128377</v>
+        <v>1.06801562332256</v>
       </c>
       <c r="M7">
-        <v>1.085076371210407</v>
+        <v>1.081244013664581</v>
       </c>
       <c r="N7">
-        <v>1.026545525083422</v>
+        <v>1.025248518329224</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.062925812637287</v>
+        <v>1.041685730754273</v>
       </c>
       <c r="D8">
-        <v>1.069916135259781</v>
+        <v>1.05947433953634</v>
       </c>
       <c r="E8">
-        <v>1.069075883988635</v>
+        <v>1.053094325895687</v>
       </c>
       <c r="F8">
-        <v>1.081421438599886</v>
+        <v>1.066147806111635</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.058522913344017</v>
+        <v>1.070741035414712</v>
       </c>
       <c r="J8">
-        <v>1.067778850000826</v>
+        <v>1.062150146599307</v>
       </c>
       <c r="K8">
-        <v>1.072556124931747</v>
+        <v>1.06990473577378</v>
       </c>
       <c r="L8">
-        <v>1.071718065417935</v>
+        <v>1.063600103406602</v>
       </c>
       <c r="M8">
-        <v>1.084031786710697</v>
+        <v>1.076500546737161</v>
       </c>
       <c r="N8">
-        <v>1.02622754943782</v>
+        <v>1.023739562416567</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.060498897320513</v>
+        <v>1.029631854213609</v>
       </c>
       <c r="D9">
-        <v>1.067929574642367</v>
+        <v>1.049818371099171</v>
       </c>
       <c r="E9">
-        <v>1.066941000449582</v>
+        <v>1.043001385784576</v>
       </c>
       <c r="F9">
-        <v>1.079163060905539</v>
+        <v>1.055478327627217</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.057684354704822</v>
+        <v>1.065765283316362</v>
       </c>
       <c r="J9">
-        <v>1.066148872731752</v>
+        <v>1.054179942954612</v>
       </c>
       <c r="K9">
-        <v>1.070991395156736</v>
+        <v>1.062151770641113</v>
       </c>
       <c r="L9">
-        <v>1.07000584176509</v>
+        <v>1.055433299580437</v>
       </c>
       <c r="M9">
-        <v>1.082190978681453</v>
+        <v>1.067731155883376</v>
       </c>
       <c r="N9">
-        <v>1.025665099330722</v>
+        <v>1.020936887930933</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.058882501762848</v>
+        <v>1.021174794073132</v>
       </c>
       <c r="D10">
-        <v>1.066606531735687</v>
+        <v>1.043062268839229</v>
       </c>
       <c r="E10">
-        <v>1.065520645612974</v>
+        <v>1.035952121256408</v>
       </c>
       <c r="F10">
-        <v>1.077660662990181</v>
+        <v>1.048025811705227</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.057119693142114</v>
+        <v>1.062225553856338</v>
       </c>
       <c r="J10">
-        <v>1.065060589364209</v>
+        <v>1.048572767673664</v>
       </c>
       <c r="K10">
-        <v>1.069946226418845</v>
+        <v>1.056695240080479</v>
       </c>
       <c r="L10">
-        <v>1.068863983263727</v>
+        <v>1.049701234418047</v>
       </c>
       <c r="M10">
-        <v>1.080963731073379</v>
+        <v>1.061578902742369</v>
       </c>
       <c r="N10">
-        <v>1.025288712229924</v>
+        <v>1.018962333773204</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.058182953598301</v>
+        <v>1.017401904199427</v>
       </c>
       <c r="D11">
-        <v>1.06603396395583</v>
+        <v>1.040053461497006</v>
       </c>
       <c r="E11">
-        <v>1.064906313006288</v>
+        <v>1.032815670933553</v>
       </c>
       <c r="F11">
-        <v>1.077010872973282</v>
+        <v>1.044709775255681</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.056873858073693</v>
+        <v>1.060635425537612</v>
       </c>
       <c r="J11">
-        <v>1.064588968711997</v>
+        <v>1.04606824434616</v>
       </c>
       <c r="K11">
-        <v>1.069493184645488</v>
+        <v>1.05425759393455</v>
       </c>
       <c r="L11">
-        <v>1.068369463098695</v>
+        <v>1.047144176240221</v>
       </c>
       <c r="M11">
-        <v>1.080432316394583</v>
+        <v>1.058835069314453</v>
       </c>
       <c r="N11">
-        <v>1.025125398782169</v>
+        <v>1.01807984782689</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.057923164657557</v>
+        <v>1.015982798249093</v>
       </c>
       <c r="D12">
-        <v>1.065821335285421</v>
+        <v>1.038922615889373</v>
       </c>
       <c r="E12">
-        <v>1.064678226885702</v>
+        <v>1.031637283454421</v>
       </c>
       <c r="F12">
-        <v>1.076769626590218</v>
+        <v>1.043463888407512</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.056782343932127</v>
+        <v>1.060035730893996</v>
       </c>
       <c r="J12">
-        <v>1.064413730035523</v>
+        <v>1.045125809054442</v>
       </c>
       <c r="K12">
-        <v>1.069324833530205</v>
+        <v>1.053340272159842</v>
       </c>
       <c r="L12">
-        <v>1.068185763533146</v>
+        <v>1.046182466751713</v>
       </c>
       <c r="M12">
-        <v>1.080234924569682</v>
+        <v>1.057803215867621</v>
       </c>
       <c r="N12">
-        <v>1.02506468674803</v>
+        <v>1.017747708423979</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.057978887805006</v>
+        <v>1.016288018922573</v>
       </c>
       <c r="D13">
-        <v>1.065866942652127</v>
+        <v>1.039165797349099</v>
       </c>
       <c r="E13">
-        <v>1.064727147399957</v>
+        <v>1.031890669078331</v>
       </c>
       <c r="F13">
-        <v>1.076821369563712</v>
+        <v>1.043731789532812</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.056801983075652</v>
+        <v>1.060164784169846</v>
       </c>
       <c r="J13">
-        <v>1.06445132193508</v>
+        <v>1.045328524946219</v>
       </c>
       <c r="K13">
-        <v>1.069360948632619</v>
+        <v>1.053537588368987</v>
       </c>
       <c r="L13">
-        <v>1.068225168283635</v>
+        <v>1.046389306048239</v>
       </c>
       <c r="M13">
-        <v>1.080277265812081</v>
+        <v>1.058025136703256</v>
       </c>
       <c r="N13">
-        <v>1.025077711950982</v>
+        <v>1.017819153691835</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.058161478253513</v>
+        <v>1.017284967447664</v>
       </c>
       <c r="D14">
-        <v>1.066016387010574</v>
+        <v>1.039960259875426</v>
       </c>
       <c r="E14">
-        <v>1.064887457203753</v>
+        <v>1.032718542275486</v>
       </c>
       <c r="F14">
-        <v>1.076990929131216</v>
+        <v>1.044607083532837</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.056866297566022</v>
+        <v>1.060586041791134</v>
       </c>
       <c r="J14">
-        <v>1.064574484604787</v>
+        <v>1.045990593945928</v>
       </c>
       <c r="K14">
-        <v>1.069479270140469</v>
+        <v>1.054182013717928</v>
       </c>
       <c r="L14">
-        <v>1.068354278692954</v>
+        <v>1.04706492769344</v>
       </c>
       <c r="M14">
-        <v>1.080415999937169</v>
+        <v>1.058750038549734</v>
       </c>
       <c r="N14">
-        <v>1.025120381328136</v>
+        <v>1.01805248301222</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.058273985464301</v>
+        <v>1.017896844796298</v>
       </c>
       <c r="D15">
-        <v>1.066108471057581</v>
+        <v>1.04044797765506</v>
       </c>
       <c r="E15">
-        <v>1.064986243212908</v>
+        <v>1.033226827548421</v>
       </c>
       <c r="F15">
-        <v>1.077095415576901</v>
+        <v>1.045144479816098</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.056905897343474</v>
+        <v>1.060844379983803</v>
       </c>
       <c r="J15">
-        <v>1.064650361545997</v>
+        <v>1.046396887411517</v>
       </c>
       <c r="K15">
-        <v>1.069552162500245</v>
+        <v>1.054577473218631</v>
       </c>
       <c r="L15">
-        <v>1.068433826200245</v>
+        <v>1.047479603385335</v>
       </c>
       <c r="M15">
-        <v>1.080501478525951</v>
+        <v>1.05919497443164</v>
       </c>
       <c r="N15">
-        <v>1.025146664701581</v>
+        <v>1.018195662480107</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.058928936096316</v>
+        <v>1.021422765868061</v>
       </c>
       <c r="D16">
-        <v>1.066644537939271</v>
+        <v>1.043260137117845</v>
       </c>
       <c r="E16">
-        <v>1.065561431445247</v>
+        <v>1.036158443972</v>
       </c>
       <c r="F16">
-        <v>1.077703803443372</v>
+        <v>1.048243944317802</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.057135980340565</v>
+        <v>1.062329840390055</v>
       </c>
       <c r="J16">
-        <v>1.065091881153822</v>
+        <v>1.048737317779178</v>
       </c>
       <c r="K16">
-        <v>1.069976283298046</v>
+        <v>1.056855388546755</v>
       </c>
       <c r="L16">
-        <v>1.068896801124674</v>
+        <v>1.049869304242492</v>
       </c>
       <c r="M16">
-        <v>1.080998999182218</v>
+        <v>1.061759262964815</v>
       </c>
       <c r="N16">
-        <v>1.025299543760149</v>
+        <v>1.019020304302918</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.059339866210469</v>
+        <v>1.023604088187268</v>
       </c>
       <c r="D17">
-        <v>1.066980884263069</v>
+        <v>1.045001321424008</v>
       </c>
       <c r="E17">
-        <v>1.06592241711828</v>
+        <v>1.037974356081555</v>
       </c>
       <c r="F17">
-        <v>1.078085632527797</v>
+        <v>1.050163779859213</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.057279948614594</v>
+        <v>1.063245971356471</v>
       </c>
       <c r="J17">
-        <v>1.065368731428804</v>
+        <v>1.05018446950097</v>
       </c>
       <c r="K17">
-        <v>1.070242195699479</v>
+        <v>1.058263784121562</v>
       </c>
       <c r="L17">
-        <v>1.069187189845699</v>
+        <v>1.051347780393882</v>
       </c>
       <c r="M17">
-        <v>1.081311078861535</v>
+        <v>1.063345931558519</v>
       </c>
       <c r="N17">
-        <v>1.025395351137229</v>
+        <v>1.019530073709585</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.059579589696949</v>
+        <v>1.024865786762804</v>
       </c>
       <c r="D18">
-        <v>1.06717710007362</v>
+        <v>1.046008931765947</v>
       </c>
       <c r="E18">
-        <v>1.066133040525794</v>
+        <v>1.039025487895741</v>
       </c>
       <c r="F18">
-        <v>1.078308420083748</v>
+        <v>1.051275051628293</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.057363794255389</v>
+        <v>1.063774827016219</v>
       </c>
       <c r="J18">
-        <v>1.06553017616931</v>
+        <v>1.051021225425852</v>
       </c>
       <c r="K18">
-        <v>1.070397251871418</v>
+        <v>1.059078091364812</v>
       </c>
       <c r="L18">
-        <v>1.069356560162538</v>
+        <v>1.052202955664715</v>
       </c>
       <c r="M18">
-        <v>1.081493108817331</v>
+        <v>1.064263750476794</v>
       </c>
       <c r="N18">
-        <v>1.025451201587243</v>
+        <v>1.019824776429329</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.059661335129837</v>
+        <v>1.025294220101165</v>
       </c>
       <c r="D19">
-        <v>1.067244009780486</v>
+        <v>1.046351165954903</v>
       </c>
       <c r="E19">
-        <v>1.066204868937164</v>
+        <v>1.039382551293682</v>
       </c>
       <c r="F19">
-        <v>1.078384397264107</v>
+        <v>1.051652541647887</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.057392361630316</v>
+        <v>1.063954231292584</v>
       </c>
       <c r="J19">
-        <v>1.065585218309715</v>
+        <v>1.051305310651907</v>
       </c>
       <c r="K19">
-        <v>1.070450114198716</v>
+        <v>1.059354548099133</v>
       </c>
       <c r="L19">
-        <v>1.069414309606426</v>
+        <v>1.052493346352315</v>
       </c>
       <c r="M19">
-        <v>1.081555176170177</v>
+        <v>1.064575423679001</v>
       </c>
       <c r="N19">
-        <v>1.025470239649404</v>
+        <v>1.019924821389697</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.059295773687616</v>
+        <v>1.023371159567775</v>
       </c>
       <c r="D20">
-        <v>1.066944794306531</v>
+        <v>1.044815340579215</v>
       </c>
       <c r="E20">
-        <v>1.065883679881403</v>
+        <v>1.037780364645348</v>
       </c>
       <c r="F20">
-        <v>1.078044658313648</v>
+        <v>1.049958688061022</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.057264515483344</v>
+        <v>1.063148251873515</v>
       </c>
       <c r="J20">
-        <v>1.06533903187421</v>
+        <v>1.050029967819431</v>
       </c>
       <c r="K20">
-        <v>1.070213670573782</v>
+        <v>1.058113424182575</v>
       </c>
       <c r="L20">
-        <v>1.069156034761197</v>
+        <v>1.051189902501507</v>
       </c>
       <c r="M20">
-        <v>1.081277595748736</v>
+        <v>1.063176493839686</v>
       </c>
       <c r="N20">
-        <v>1.025385075259069</v>
+        <v>1.019475654549138</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.058107708415442</v>
+        <v>1.016991887794569</v>
       </c>
       <c r="D21">
-        <v>1.065972378027912</v>
+        <v>1.03972668198125</v>
       </c>
       <c r="E21">
-        <v>1.06484024707611</v>
+        <v>1.032475129551575</v>
       </c>
       <c r="F21">
-        <v>1.076940994897061</v>
+        <v>1.044349728840376</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.056847364072381</v>
+        <v>1.06046224533604</v>
       </c>
       <c r="J21">
-        <v>1.064538217860215</v>
+        <v>1.04579597172925</v>
       </c>
       <c r="K21">
-        <v>1.069444429368481</v>
+        <v>1.053992579387574</v>
       </c>
       <c r="L21">
-        <v>1.068316259243966</v>
+        <v>1.046866307880047</v>
       </c>
       <c r="M21">
-        <v>1.080375146211877</v>
+        <v>1.058536928475331</v>
       </c>
       <c r="N21">
-        <v>1.025107817642517</v>
+        <v>1.017983895087246</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.057361039362134</v>
+        <v>1.01287809162459</v>
       </c>
       <c r="D22">
-        <v>1.065361262223524</v>
+        <v>1.036450240085742</v>
       </c>
       <c r="E22">
-        <v>1.06418480358467</v>
+        <v>1.029061754383753</v>
       </c>
       <c r="F22">
-        <v>1.076247741042011</v>
+        <v>1.040740776615958</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.056583927089492</v>
+        <v>1.058720849592948</v>
       </c>
       <c r="J22">
-        <v>1.064034380252513</v>
+        <v>1.043063277348874</v>
       </c>
       <c r="K22">
-        <v>1.068960364986123</v>
+        <v>1.051332617413266</v>
       </c>
       <c r="L22">
-        <v>1.06778818545713</v>
+        <v>1.044078670038204</v>
       </c>
       <c r="M22">
-        <v>1.079807736271255</v>
+        <v>1.055546165053341</v>
       </c>
       <c r="N22">
-        <v>1.024933204749807</v>
+        <v>1.017020710373113</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.057756832905787</v>
+        <v>1.015069008263421</v>
       </c>
       <c r="D23">
-        <v>1.065685199433066</v>
+        <v>1.038194695773428</v>
       </c>
       <c r="E23">
-        <v>1.06453220910361</v>
+        <v>1.030878881856415</v>
       </c>
       <c r="F23">
-        <v>1.076615184951491</v>
+        <v>1.042662036623297</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.056723689652899</v>
+        <v>1.059649132934721</v>
       </c>
       <c r="J23">
-        <v>1.064301505651008</v>
+        <v>1.044518849862869</v>
       </c>
       <c r="K23">
-        <v>1.06921701558138</v>
+        <v>1.05274947352905</v>
       </c>
       <c r="L23">
-        <v>1.068068134188061</v>
+        <v>1.045563234471867</v>
       </c>
       <c r="M23">
-        <v>1.08010853123577</v>
+        <v>1.057138847824558</v>
       </c>
       <c r="N23">
-        <v>1.025025797760555</v>
+        <v>1.017533782842587</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.059315697092788</v>
+        <v>1.023476442759085</v>
       </c>
       <c r="D24">
-        <v>1.06696110170959</v>
+        <v>1.044899401966122</v>
       </c>
       <c r="E24">
-        <v>1.065901183365626</v>
+        <v>1.037868045875901</v>
       </c>
       <c r="F24">
-        <v>1.078063172571403</v>
+        <v>1.050051386537542</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.057271489448418</v>
+        <v>1.063192424091763</v>
       </c>
       <c r="J24">
-        <v>1.065352451939865</v>
+        <v>1.050099803124777</v>
       </c>
       <c r="K24">
-        <v>1.07022655999244</v>
+        <v>1.058181387529026</v>
       </c>
       <c r="L24">
-        <v>1.069170112429104</v>
+        <v>1.051261262913433</v>
       </c>
       <c r="M24">
-        <v>1.081292725328726</v>
+        <v>1.063253079067926</v>
       </c>
       <c r="N24">
-        <v>1.025389718586118</v>
+        <v>1.019500252359202</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.061126041186818</v>
+        <v>1.032818806743339</v>
       </c>
       <c r="D25">
-        <v>1.068442916832751</v>
+        <v>1.052368400990255</v>
       </c>
       <c r="E25">
-        <v>1.067492410924465</v>
+        <v>1.045664625342966</v>
       </c>
       <c r="F25">
-        <v>1.07974634719888</v>
+        <v>1.058293789248247</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.057902134454701</v>
+        <v>1.06708940133695</v>
       </c>
       <c r="J25">
-        <v>1.066570550520083</v>
+        <v>1.05629000902146</v>
       </c>
       <c r="K25">
-        <v>1.071396272790905</v>
+        <v>1.064204733797533</v>
       </c>
       <c r="L25">
-        <v>1.07044856129857</v>
+        <v>1.057593126926894</v>
       </c>
       <c r="M25">
-        <v>1.082666881786261</v>
+        <v>1.070049877266014</v>
       </c>
       <c r="N25">
-        <v>1.025810757690045</v>
+        <v>1.021679412196319</v>
       </c>
     </row>
   </sheetData>
